--- a/storage/uploads/system/shop/shop_muban.xlsx
+++ b/storage/uploads/system/shop/shop_muban.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>序号</t>
   </si>
@@ -65,59 +65,86 @@
     <t>备注</t>
   </si>
   <si>
-    <t>合同签约</t>
-  </si>
-  <si>
-    <t>马湘湘</t>
-  </si>
-  <si>
-    <t>许菲</t>
-  </si>
-  <si>
     <t>卉祥</t>
   </si>
   <si>
-    <t>上海市普陀区中华新路1189号</t>
-  </si>
-  <si>
-    <t>叶慧敏</t>
-  </si>
-  <si>
-    <t>彭轩</t>
-  </si>
-  <si>
-    <t>上海市普陀区江宁路1165号</t>
-  </si>
-  <si>
     <t>是</t>
   </si>
   <si>
+    <t>正常合作</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>易之康养生馆</t>
+  </si>
+  <si>
+    <t>陈云</t>
+  </si>
+  <si>
+    <t>何琼燕</t>
+  </si>
+  <si>
+    <t>天津市河东区第六大道俊东公寓25号</t>
+  </si>
+  <si>
+    <t>朗言美容养生会馆</t>
+  </si>
+  <si>
+    <t>李会荣</t>
+  </si>
+  <si>
+    <t>赵芳芳</t>
+  </si>
+  <si>
+    <t>卉祥公司</t>
+  </si>
+  <si>
+    <t>天津市河东区中山门龙潭路12号底商</t>
+  </si>
+  <si>
+    <t>银曼头道汤美容养生坊</t>
+  </si>
+  <si>
+    <t>陈云飞</t>
+  </si>
+  <si>
+    <t>任兆凤</t>
+  </si>
+  <si>
+    <t>天津市河东区泰兴南路31号-1</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>王红梅</t>
+  </si>
+  <si>
+    <t>丁亚丽</t>
+  </si>
+  <si>
+    <t>安徽公司</t>
+  </si>
+  <si>
+    <t>天津市河东区太阳城橙翠园33号楼1门101</t>
+  </si>
+  <si>
     <t>定金发货</t>
   </si>
   <si>
-    <t>正常合作</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
     <t>取消合作</t>
+  </si>
+  <si>
+    <t>冻结</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,7 +155,25 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFDD0806"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -136,19 +181,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,18 +191,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFCF305"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -204,78 +244,189 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,33 +700,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="26" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" customWidth="1"/>
-    <col min="13" max="13" width="36.83203125" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -584,144 +733,175 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="11">
+        <v>15122632531</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="12">
+        <v>5</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>12</v>
       </c>
+      <c r="I2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="14">
+        <v>42228</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="7"/>
     </row>
-    <row r="2" spans="1:13" ht="28" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+    <row r="3" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="20">
+        <v>13622186958</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="21">
+        <v>10</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="I3" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="23">
+        <v>43003</v>
+      </c>
+      <c r="K3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="6">
-        <v>13651938415</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="8">
-        <v>5</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="15">
-        <v>42655</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="21">
-        <v>42656</v>
-      </c>
+      <c r="L3" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="7"/>
     </row>
-    <row r="3" spans="1:13" ht="28" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="6">
-        <v>15121099682</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="8">
+    <row r="4" spans="1:13" ht="64" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="20">
+        <v>18611499050</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="20">
         <v>10</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="15">
-        <v>43084</v>
-      </c>
-      <c r="K3" s="6">
-        <v>2000</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="21">
-        <v>43089</v>
-      </c>
+      <c r="H4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="26">
+        <v>42867</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="7"/>
     </row>
-    <row r="4" spans="1:13" ht="28" x14ac:dyDescent="0.2">
-      <c r="A4" s="20">
-        <v>2</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="17">
-        <v>15121099682</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="8">
+    <row r="5" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="29">
+        <v>13512873308</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="29">
         <v>10</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="19">
-        <v>43084</v>
-      </c>
-      <c r="K4" s="17">
-        <v>2000</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="21">
-        <v>43089</v>
-      </c>
+      <c r="H5" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="32">
+        <v>42833</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
